--- a/Test Execution/Prapancha/Test Case- EMR IP.xlsx
+++ b/Test Execution/Prapancha/Test Case- EMR IP.xlsx
@@ -1948,14 +1948,14 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2275,8 +2275,8 @@
   <dimension ref="A1:R809"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A181" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D184" sqref="D184"/>
+      <pane ySplit="1" topLeftCell="A44" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F48" sqref="F48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -2351,7 +2351,7 @@
       <c r="C2" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="D2" s="27" t="s">
+      <c r="D2" s="28" t="s">
         <v>34</v>
       </c>
       <c r="E2" s="7">
@@ -2385,7 +2385,7 @@
       <c r="A3" s="9"/>
       <c r="B3" s="8"/>
       <c r="C3" s="8"/>
-      <c r="D3" s="27"/>
+      <c r="D3" s="28"/>
       <c r="E3" s="7">
         <v>2</v>
       </c>
@@ -2421,7 +2421,7 @@
       <c r="A4" s="9"/>
       <c r="B4" s="8"/>
       <c r="C4" s="8"/>
-      <c r="D4" s="27"/>
+      <c r="D4" s="28"/>
       <c r="E4" s="7">
         <v>3</v>
       </c>
@@ -2452,7 +2452,7 @@
     </row>
     <row r="5" spans="1:18" ht="30">
       <c r="A5" s="9"/>
-      <c r="D5" s="27"/>
+      <c r="D5" s="28"/>
       <c r="E5" s="7">
         <v>4</v>
       </c>
@@ -2476,7 +2476,7 @@
     </row>
     <row r="6" spans="1:18" ht="150">
       <c r="A6" s="9"/>
-      <c r="D6" s="27"/>
+      <c r="D6" s="28"/>
       <c r="E6" s="7">
         <v>5</v>
       </c>
@@ -2490,7 +2490,7 @@
     </row>
     <row r="7" spans="1:18" ht="30">
       <c r="A7" s="9"/>
-      <c r="D7" s="27"/>
+      <c r="D7" s="28"/>
       <c r="E7" s="7">
         <v>6</v>
       </c>
@@ -2504,7 +2504,7 @@
     </row>
     <row r="8" spans="1:18" ht="30" customHeight="1">
       <c r="A8" s="9"/>
-      <c r="D8" s="27"/>
+      <c r="D8" s="28"/>
       <c r="E8" s="7">
         <v>7</v>
       </c>
@@ -2536,7 +2536,7 @@
       <c r="C10" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="D10" s="27" t="s">
+      <c r="D10" s="28" t="s">
         <v>46</v>
       </c>
       <c r="E10" s="7">
@@ -2549,7 +2549,7 @@
     </row>
     <row r="11" spans="1:18" ht="30">
       <c r="A11" s="9"/>
-      <c r="D11" s="28"/>
+      <c r="D11" s="29"/>
       <c r="E11" s="7">
         <v>2</v>
       </c>
@@ -2566,7 +2566,7 @@
     </row>
     <row r="12" spans="1:18">
       <c r="A12" s="9"/>
-      <c r="D12" s="28"/>
+      <c r="D12" s="29"/>
       <c r="E12" s="7">
         <v>3</v>
       </c>
@@ -2580,7 +2580,7 @@
     </row>
     <row r="13" spans="1:18" ht="30">
       <c r="A13" s="9"/>
-      <c r="D13" s="28"/>
+      <c r="D13" s="29"/>
       <c r="E13" s="7">
         <v>4</v>
       </c>
@@ -2594,7 +2594,7 @@
     </row>
     <row r="14" spans="1:18" ht="45" customHeight="1">
       <c r="A14" s="9"/>
-      <c r="D14" s="28"/>
+      <c r="D14" s="29"/>
       <c r="E14" s="7">
         <v>5</v>
       </c>
@@ -2608,7 +2608,7 @@
     </row>
     <row r="15" spans="1:18" ht="30">
       <c r="A15" s="9"/>
-      <c r="D15" s="28"/>
+      <c r="D15" s="29"/>
       <c r="E15" s="7">
         <v>6</v>
       </c>
@@ -2622,7 +2622,7 @@
     </row>
     <row r="16" spans="1:18" ht="30">
       <c r="A16" s="9"/>
-      <c r="D16" s="28"/>
+      <c r="D16" s="29"/>
       <c r="E16" s="7">
         <v>7</v>
       </c>
@@ -2636,7 +2636,7 @@
     </row>
     <row r="17" spans="1:11">
       <c r="A17" s="9"/>
-      <c r="D17" s="28"/>
+      <c r="D17" s="29"/>
       <c r="E17" s="7">
         <v>8</v>
       </c>
@@ -2668,7 +2668,7 @@
       <c r="C19" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="D19" s="27" t="s">
+      <c r="D19" s="28" t="s">
         <v>334</v>
       </c>
       <c r="E19" s="15">
@@ -2684,7 +2684,7 @@
     </row>
     <row r="20" spans="1:11" ht="15" customHeight="1">
       <c r="A20" s="7"/>
-      <c r="D20" s="27"/>
+      <c r="D20" s="28"/>
       <c r="E20" s="15">
         <v>2</v>
       </c>
@@ -2698,7 +2698,7 @@
     </row>
     <row r="21" spans="1:11">
       <c r="A21" s="7"/>
-      <c r="D21" s="27"/>
+      <c r="D21" s="28"/>
       <c r="E21" s="15">
         <v>3</v>
       </c>
@@ -2712,7 +2712,7 @@
     </row>
     <row r="22" spans="1:11">
       <c r="A22" s="7"/>
-      <c r="D22" s="27"/>
+      <c r="D22" s="28"/>
       <c r="E22" s="15">
         <v>4</v>
       </c>
@@ -2743,13 +2743,13 @@
       <c r="C24" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="D24" s="27" t="s">
+      <c r="D24" s="28" t="s">
         <v>67</v>
       </c>
       <c r="E24" s="7">
         <v>1</v>
       </c>
-      <c r="F24" s="7" t="s">
+      <c r="F24" s="9" t="s">
         <v>261</v>
       </c>
       <c r="G24" s="7"/>
@@ -2757,7 +2757,7 @@
     </row>
     <row r="25" spans="1:11" ht="30">
       <c r="A25" s="7"/>
-      <c r="D25" s="28"/>
+      <c r="D25" s="29"/>
       <c r="E25" s="7">
         <v>2</v>
       </c>
@@ -3111,7 +3111,7 @@
       <c r="H46" s="16"/>
       <c r="K46" s="10"/>
     </row>
-    <row r="47" spans="1:11" ht="105">
+    <row r="47" spans="1:11" ht="137.25" customHeight="1">
       <c r="A47" s="9" t="s">
         <v>392</v>
       </c>
@@ -3132,7 +3132,7 @@
       </c>
       <c r="K47" s="10"/>
     </row>
-    <row r="48" spans="1:11" ht="45">
+    <row r="48" spans="1:11" ht="73.5" customHeight="1">
       <c r="A48" s="7"/>
       <c r="D48" s="7"/>
       <c r="E48" s="7">
@@ -5405,7 +5405,7 @@
       <c r="K181" s="10"/>
     </row>
     <row r="182" spans="1:11" ht="150">
-      <c r="A182" s="29" t="s">
+      <c r="A182" s="27" t="s">
         <v>430</v>
       </c>
       <c r="B182" s="8" t="s">
@@ -5443,7 +5443,7 @@
       <c r="K183" s="10"/>
     </row>
     <row r="184" spans="1:11" ht="209.25" customHeight="1">
-      <c r="A184" s="29" t="s">
+      <c r="A184" s="27" t="s">
         <v>431</v>
       </c>
       <c r="B184" s="8" t="s">
